--- a/rezervito-hw-03/Traceability Matrix/Matrix - Requirements and Referenced Requirements.xlsx
+++ b/rezervito-hw-03/Traceability Matrix/Matrix - Requirements and Referenced Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\rezervito-hw-03\Traceability Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C501EE5F-29C7-45BC-81D5-7B2452C249B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61034D5-2FD3-4797-ABBA-DBA0613DB676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
   <si>
     <t>Requirements and Referenced Requirements</t>
   </si>
@@ -148,9 +148,6 @@
     <t>REQ-7-3.1 Restaurant Manager Account Creation</t>
   </si>
   <si>
-    <t>REQ-7-4 Apply Updates</t>
-  </si>
-  <si>
     <t>REQ-7-5 Admin Report Bugs</t>
   </si>
   <si>
@@ -416,12 +413,6 @@
   </si>
   <si>
     <t>Restaurant Manager Account Creation</t>
-  </si>
-  <si>
-    <t>REQ-7-4</t>
-  </si>
-  <si>
-    <t>Apply Updates</t>
   </si>
   <si>
     <t>REQ-7-5</t>
@@ -683,7 +674,7 @@
     <cellStyle name="Normal 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="147">
     <dxf>
       <fill>
         <patternFill>
@@ -1367,30 +1358,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2340,7 +2307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA55"/>
+  <dimension ref="A1:AZ54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2351,7 +2318,7 @@
     <col min="3" max="3" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2374,14 +2341,14 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:53" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="15">
-        <v>43969.534571759257</v>
+        <v>43970.663726851853</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2399,11 +2366,11 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:53" ht="184.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="184.2" x14ac:dyDescent="0.25">
       <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
@@ -2551,20 +2518,17 @@
       <c r="AZ4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BA4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -2613,17 +2577,16 @@
       <c r="AX5" s="14"/>
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
     </row>
-    <row r="6" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -2673,20 +2636,19 @@
       <c r="AX6" s="14"/>
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
     </row>
-    <row r="7" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -2733,19 +2695,18 @@
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
     </row>
-    <row r="8" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2793,14 +2754,13 @@
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
     </row>
-    <row r="9" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2808,7 +2768,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2853,21 +2813,20 @@
       <c r="AX9" s="14"/>
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
     </row>
-    <row r="10" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -2913,14 +2872,13 @@
       <c r="AX10" s="14"/>
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
     </row>
-    <row r="11" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2930,13 +2888,13 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -2977,14 +2935,13 @@
       <c r="AX11" s="14"/>
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
     </row>
-    <row r="12" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2993,7 +2950,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -3037,14 +2994,13 @@
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
     </row>
-    <row r="13" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -3053,7 +3009,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -3097,14 +3053,13 @@
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
     </row>
-    <row r="14" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -3113,7 +3068,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -3157,14 +3112,13 @@
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
     </row>
-    <row r="15" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -3215,14 +3169,13 @@
       <c r="AX15" s="14"/>
       <c r="AY15" s="14"/>
       <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
     </row>
-    <row r="16" spans="1:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -3273,14 +3226,13 @@
       <c r="AX16" s="14"/>
       <c r="AY16" s="14"/>
       <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
     </row>
-    <row r="17" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -3331,14 +3283,13 @@
       <c r="AX17" s="14"/>
       <c r="AY17" s="14"/>
       <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
     </row>
-    <row r="18" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3355,16 +3306,16 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
@@ -3397,14 +3348,13 @@
       <c r="AX18" s="14"/>
       <c r="AY18" s="14"/>
       <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
     </row>
-    <row r="19" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -3420,7 +3370,7 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -3457,14 +3407,13 @@
       <c r="AX19" s="14"/>
       <c r="AY19" s="14"/>
       <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
     </row>
-    <row r="20" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -3480,7 +3429,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
@@ -3517,14 +3466,13 @@
       <c r="AX20" s="14"/>
       <c r="AY20" s="14"/>
       <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
     </row>
-    <row r="21" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -3540,7 +3488,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
@@ -3577,14 +3525,13 @@
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
       <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
     </row>
-    <row r="22" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -3600,7 +3547,7 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -3637,14 +3584,13 @@
       <c r="AX22" s="14"/>
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
     </row>
-    <row r="23" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -3666,7 +3612,7 @@
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
@@ -3697,14 +3643,13 @@
       <c r="AX23" s="14"/>
       <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
     </row>
-    <row r="24" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -3725,7 +3670,7 @@
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
@@ -3757,14 +3702,13 @@
       <c r="AX24" s="14"/>
       <c r="AY24" s="14"/>
       <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
     </row>
-    <row r="25" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -3815,14 +3759,13 @@
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
     </row>
-    <row r="26" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -3873,14 +3816,13 @@
       <c r="AX26" s="14"/>
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
     </row>
-    <row r="27" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3931,14 +3873,13 @@
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
     </row>
-    <row r="28" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -3965,13 +3906,13 @@
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AC28" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AD28" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
@@ -3995,14 +3936,13 @@
       <c r="AX28" s="14"/>
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
-      <c r="BA28" s="14"/>
     </row>
-    <row r="29" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -4028,7 +3968,7 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
@@ -4038,7 +3978,7 @@
       <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
       <c r="AI29" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ29" s="14"/>
       <c r="AK29" s="14"/>
@@ -4057,14 +3997,13 @@
       <c r="AX29" s="14"/>
       <c r="AY29" s="14"/>
       <c r="AZ29" s="14"/>
-      <c r="BA29" s="14"/>
     </row>
-    <row r="30" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -4090,7 +4029,7 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
@@ -4100,7 +4039,7 @@
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
       <c r="AI30" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ30" s="14"/>
       <c r="AK30" s="14"/>
@@ -4119,14 +4058,13 @@
       <c r="AX30" s="14"/>
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
     </row>
-    <row r="31" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -4152,7 +4090,7 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
@@ -4162,7 +4100,7 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
@@ -4181,14 +4119,13 @@
       <c r="AX31" s="14"/>
       <c r="AY31" s="14"/>
       <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
     </row>
-    <row r="32" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -4219,7 +4156,7 @@
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
@@ -4241,14 +4178,13 @@
       <c r="AX32" s="14"/>
       <c r="AY32" s="14"/>
       <c r="AZ32" s="14"/>
-      <c r="BA32" s="14"/>
     </row>
-    <row r="33" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -4278,7 +4214,7 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AF33" s="14"/>
       <c r="AG33" s="14"/>
@@ -4301,14 +4237,13 @@
       <c r="AX33" s="14"/>
       <c r="AY33" s="14"/>
       <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
     </row>
-    <row r="34" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -4341,7 +4276,7 @@
       <c r="AF34" s="14"/>
       <c r="AG34" s="14"/>
       <c r="AH34" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="14"/>
@@ -4361,14 +4296,13 @@
       <c r="AX34" s="14"/>
       <c r="AY34" s="14"/>
       <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
     </row>
-    <row r="35" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -4400,7 +4334,7 @@
       <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
       <c r="AG35" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH35" s="14"/>
       <c r="AI35" s="14"/>
@@ -4421,14 +4355,13 @@
       <c r="AX35" s="14"/>
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14"/>
-      <c r="BA35" s="14"/>
     </row>
-    <row r="36" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -4455,13 +4388,13 @@
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AC36" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AD36" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>
@@ -4485,14 +4418,13 @@
       <c r="AX36" s="14"/>
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
-      <c r="BA36" s="14"/>
     </row>
-    <row r="37" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -4543,14 +4475,13 @@
       <c r="AX37" s="14"/>
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14"/>
-      <c r="BA37" s="14"/>
     </row>
-    <row r="38" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -4587,10 +4518,10 @@
       <c r="AJ38" s="14"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AM38" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AN38" s="14"/>
       <c r="AO38" s="14"/>
@@ -4605,14 +4536,13 @@
       <c r="AX38" s="14"/>
       <c r="AY38" s="14"/>
       <c r="AZ38" s="14"/>
-      <c r="BA38" s="14"/>
     </row>
-    <row r="39" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -4648,7 +4578,7 @@
       <c r="AI39" s="14"/>
       <c r="AJ39" s="14"/>
       <c r="AK39" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AL39" s="14"/>
       <c r="AM39" s="14"/>
@@ -4665,14 +4595,13 @@
       <c r="AX39" s="14"/>
       <c r="AY39" s="14"/>
       <c r="AZ39" s="14"/>
-      <c r="BA39" s="14"/>
     </row>
-    <row r="40" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -4708,7 +4637,7 @@
       <c r="AI40" s="14"/>
       <c r="AJ40" s="14"/>
       <c r="AK40" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AL40" s="14"/>
       <c r="AM40" s="14"/>
@@ -4725,14 +4654,13 @@
       <c r="AX40" s="14"/>
       <c r="AY40" s="14"/>
       <c r="AZ40" s="14"/>
-      <c r="BA40" s="14"/>
     </row>
-    <row r="41" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -4783,14 +4711,13 @@
       <c r="AX41" s="14"/>
       <c r="AY41" s="14"/>
       <c r="AZ41" s="14"/>
-      <c r="BA41" s="14"/>
     </row>
-    <row r="42" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -4841,14 +4768,13 @@
       <c r="AX42" s="14"/>
       <c r="AY42" s="14"/>
       <c r="AZ42" s="14"/>
-      <c r="BA42" s="14"/>
     </row>
-    <row r="43" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -4890,7 +4816,7 @@
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
       <c r="AQ43" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
@@ -4901,14 +4827,13 @@
       <c r="AX43" s="14"/>
       <c r="AY43" s="14"/>
       <c r="AZ43" s="14"/>
-      <c r="BA43" s="14"/>
     </row>
-    <row r="44" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -4949,7 +4874,7 @@
       <c r="AN44" s="14"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AQ44" s="14"/>
       <c r="AR44" s="14"/>
@@ -4961,14 +4886,13 @@
       <c r="AX44" s="14"/>
       <c r="AY44" s="14"/>
       <c r="AZ44" s="14"/>
-      <c r="BA44" s="14"/>
     </row>
-    <row r="45" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -5019,14 +4943,13 @@
       <c r="AX45" s="14"/>
       <c r="AY45" s="14"/>
       <c r="AZ45" s="14"/>
-      <c r="BA45" s="14"/>
     </row>
-    <row r="46" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -5077,14 +5000,13 @@
       <c r="AX46" s="14"/>
       <c r="AY46" s="14"/>
       <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
     </row>
-    <row r="47" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -5135,14 +5057,13 @@
       <c r="AX47" s="14"/>
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
-      <c r="BA47" s="14"/>
     </row>
-    <row r="48" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -5193,14 +5114,13 @@
       <c r="AX48" s="14"/>
       <c r="AY48" s="14"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="14"/>
     </row>
-    <row r="49" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -5247,18 +5167,21 @@
       <c r="AT49" s="14"/>
       <c r="AU49" s="14"/>
       <c r="AV49" s="14"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="14"/>
+      <c r="AW49" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX49" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="AY49" s="14"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
     </row>
-    <row r="50" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -5304,23 +5227,20 @@
       <c r="AS50" s="14"/>
       <c r="AT50" s="14"/>
       <c r="AU50" s="14"/>
-      <c r="AV50" s="14"/>
+      <c r="AV50" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="AW50" s="14"/>
-      <c r="AX50" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY50" s="14" t="s">
-        <v>152</v>
-      </c>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
       <c r="AZ50" s="14"/>
-      <c r="BA50" s="14"/>
     </row>
-    <row r="51" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -5366,21 +5286,20 @@
       <c r="AS51" s="14"/>
       <c r="AT51" s="14"/>
       <c r="AU51" s="14"/>
-      <c r="AV51" s="14"/>
-      <c r="AW51" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="AV51" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW51" s="14"/>
       <c r="AX51" s="14"/>
       <c r="AY51" s="14"/>
       <c r="AZ51" s="14"/>
-      <c r="BA51" s="14"/>
     </row>
-    <row r="52" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -5427,20 +5346,17 @@
       <c r="AT52" s="14"/>
       <c r="AU52" s="14"/>
       <c r="AV52" s="14"/>
-      <c r="AW52" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="AW52" s="14"/>
       <c r="AX52" s="14"/>
       <c r="AY52" s="14"/>
       <c r="AZ52" s="14"/>
-      <c r="BA52" s="14"/>
     </row>
-    <row r="53" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -5491,879 +5407,804 @@
       <c r="AX53" s="14"/>
       <c r="AY53" s="14"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="14"/>
     </row>
-    <row r="54" spans="2:53" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
-      <c r="AN54" s="14"/>
-      <c r="AO54" s="14"/>
-      <c r="AP54" s="14"/>
-      <c r="AQ54" s="14"/>
-      <c r="AR54" s="14"/>
-      <c r="AS54" s="14"/>
-      <c r="AT54" s="14"/>
-      <c r="AU54" s="14"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="14"/>
-      <c r="AX54" s="14"/>
-      <c r="AY54" s="14"/>
-      <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
-    </row>
-    <row r="55" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="D55" s="12"/>
+    <row r="54" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="D54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AX4">
+    <cfRule type="expression" dxfId="146" priority="101">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="145" priority="146">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="144" priority="147">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="143" priority="144">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="142" priority="145">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="141" priority="142">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="140" priority="143">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="139" priority="140">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="138" priority="141">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="expression" dxfId="137" priority="138">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="136" priority="139">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="expression" dxfId="135" priority="136">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="expression" dxfId="134" priority="137">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="expression" dxfId="133" priority="134">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="expression" dxfId="132" priority="135">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="expression" dxfId="131" priority="132">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="expression" dxfId="130" priority="133">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="expression" dxfId="129" priority="130">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="expression" dxfId="128" priority="131">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="expression" dxfId="127" priority="128">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="expression" dxfId="126" priority="129">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="expression" dxfId="125" priority="126">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
+    <cfRule type="expression" dxfId="124" priority="127">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="expression" dxfId="123" priority="124">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="expression" dxfId="122" priority="125">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
+    <cfRule type="expression" dxfId="121" priority="122">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4">
+    <cfRule type="expression" dxfId="120" priority="123">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE4">
+    <cfRule type="expression" dxfId="119" priority="120">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4">
+    <cfRule type="expression" dxfId="118" priority="121">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4">
+    <cfRule type="expression" dxfId="117" priority="118">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4">
+    <cfRule type="expression" dxfId="116" priority="119">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4">
+    <cfRule type="expression" dxfId="115" priority="116">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4">
+    <cfRule type="expression" dxfId="114" priority="117">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK4">
+    <cfRule type="expression" dxfId="113" priority="114">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ4">
+    <cfRule type="expression" dxfId="112" priority="115">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM4">
+    <cfRule type="expression" dxfId="111" priority="112">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL4">
+    <cfRule type="expression" dxfId="110" priority="113">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO4">
+    <cfRule type="expression" dxfId="109" priority="110">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN4">
+    <cfRule type="expression" dxfId="108" priority="111">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ4">
+    <cfRule type="expression" dxfId="107" priority="108">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP4">
+    <cfRule type="expression" dxfId="106" priority="109">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS4">
+    <cfRule type="expression" dxfId="105" priority="106">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR4">
+    <cfRule type="expression" dxfId="104" priority="107">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU4">
+    <cfRule type="expression" dxfId="103" priority="104">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4">
+    <cfRule type="expression" dxfId="102" priority="105">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4">
+    <cfRule type="expression" dxfId="101" priority="102">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV4">
+    <cfRule type="expression" dxfId="100" priority="103">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AY4">
-    <cfRule type="expression" dxfId="149" priority="103">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="148" priority="149">
+  <conditionalFormatting sqref="AZ4">
+    <cfRule type="expression" dxfId="98" priority="99">
       <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="147" priority="150">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="146" priority="147">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="145" priority="148">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="144" priority="145">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="143" priority="146">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="142" priority="143">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="141" priority="144">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="140" priority="141">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="139" priority="142">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="138" priority="139">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="137" priority="140">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="expression" dxfId="136" priority="137">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="135" priority="138">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="expression" dxfId="134" priority="135">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="expression" dxfId="133" priority="136">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="132" priority="133">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="expression" dxfId="131" priority="134">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="expression" dxfId="130" priority="131">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="expression" dxfId="129" priority="132">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="expression" dxfId="128" priority="129">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="expression" dxfId="127" priority="130">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4">
-    <cfRule type="expression" dxfId="126" priority="127">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="expression" dxfId="125" priority="128">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4">
-    <cfRule type="expression" dxfId="124" priority="125">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4">
-    <cfRule type="expression" dxfId="123" priority="126">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE4">
-    <cfRule type="expression" dxfId="122" priority="123">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD4">
-    <cfRule type="expression" dxfId="121" priority="124">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4">
-    <cfRule type="expression" dxfId="120" priority="121">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF4">
-    <cfRule type="expression" dxfId="119" priority="122">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4">
-    <cfRule type="expression" dxfId="118" priority="119">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH4">
-    <cfRule type="expression" dxfId="117" priority="120">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK4">
-    <cfRule type="expression" dxfId="116" priority="117">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4">
-    <cfRule type="expression" dxfId="115" priority="118">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM4">
-    <cfRule type="expression" dxfId="114" priority="115">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4">
-    <cfRule type="expression" dxfId="113" priority="116">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO4">
-    <cfRule type="expression" dxfId="112" priority="113">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN4">
-    <cfRule type="expression" dxfId="111" priority="114">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ4">
-    <cfRule type="expression" dxfId="110" priority="111">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP4">
-    <cfRule type="expression" dxfId="109" priority="112">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS4">
-    <cfRule type="expression" dxfId="108" priority="109">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR4">
-    <cfRule type="expression" dxfId="107" priority="110">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU4">
-    <cfRule type="expression" dxfId="106" priority="107">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT4">
-    <cfRule type="expression" dxfId="105" priority="108">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW4">
-    <cfRule type="expression" dxfId="104" priority="105">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV4">
-    <cfRule type="expression" dxfId="103" priority="106">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA4">
-    <cfRule type="expression" dxfId="102" priority="101">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX4">
-    <cfRule type="expression" dxfId="101" priority="104">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ4">
-    <cfRule type="expression" dxfId="100" priority="102">
-      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="99" priority="100">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:BA5">
-    <cfRule type="expression" dxfId="98" priority="99">
+    <cfRule type="expression" dxfId="97" priority="98">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:AZ5">
+    <cfRule type="expression" dxfId="96" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="97" priority="98">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:BA6">
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="95" priority="96">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:AZ6">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
-    <cfRule type="expression" dxfId="95" priority="96">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:BA7">
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="93" priority="94">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:AZ7">
+    <cfRule type="expression" dxfId="92" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="93" priority="94">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:BA8">
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="91" priority="92">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:AZ8">
+    <cfRule type="expression" dxfId="90" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:BA9">
-    <cfRule type="expression" dxfId="90" priority="91">
+    <cfRule type="expression" dxfId="89" priority="90">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:AZ9">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="expression" dxfId="89" priority="90">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:BA10">
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="87" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:AZ10">
+    <cfRule type="expression" dxfId="86" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="expression" dxfId="87" priority="88">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:BA11">
-    <cfRule type="expression" dxfId="86" priority="87">
+    <cfRule type="expression" dxfId="85" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:AZ11">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:BA12">
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="83" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:AZ12">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="expression" dxfId="83" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:BA13">
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="81" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:AZ13">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="81" priority="82">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:BA14">
-    <cfRule type="expression" dxfId="80" priority="81">
+    <cfRule type="expression" dxfId="79" priority="80">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:AZ14">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C15">
-    <cfRule type="expression" dxfId="79" priority="80">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:BA15">
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="77" priority="78">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:AZ15">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="expression" dxfId="77" priority="78">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:BA16">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="75" priority="76">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:AZ16">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="expression" dxfId="75" priority="76">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:BA17">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="73" priority="74">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:AZ17">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="expression" dxfId="73" priority="74">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:BA18">
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:AZ18">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="expression" dxfId="71" priority="72">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:BA19">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:AZ19">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:BA20">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="67" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:AZ20">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="expression" dxfId="67" priority="68">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:BA21">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="65" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:AZ21">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="65" priority="66">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:BA22">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="63" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:AZ22">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="expression" dxfId="63" priority="64">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:BA23">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="61" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:AZ23">
+    <cfRule type="expression" dxfId="60" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:BA24">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="59" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:AZ24">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C25">
-    <cfRule type="expression" dxfId="59" priority="60">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:BA25">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="57" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:AZ25">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="expression" dxfId="57" priority="58">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:BA26">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="55" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:AZ26">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27">
-    <cfRule type="expression" dxfId="55" priority="56">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:BA27">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="53" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:AZ27">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C28">
-    <cfRule type="expression" dxfId="53" priority="54">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:BA28">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:AZ28">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:BA29">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:AZ29">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:BA30">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:AZ30">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:BA31">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:AZ31">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:BA32">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:AZ32">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:BA33">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:AZ33">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:BA34">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:AZ34">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C35">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:BA35">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:AZ35">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="37" priority="38">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:BA36">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:AZ36">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:C37">
-    <cfRule type="expression" dxfId="35" priority="36">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:BA37">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:AZ37">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C38">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:BA38">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:AZ38">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:C39">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:BA39">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:AZ39">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:C40">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:BA40">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:AZ40">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:BA41">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:AZ41">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C42">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:BA42">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:AZ42">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:BA43">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:AZ43">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:BA44">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:AZ44">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:C45">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:BA45">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:AZ45">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C46">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:BA46">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:AZ46">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C47">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:BA47">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:AZ47">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C48">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:BA48">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:AZ48">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:BA49">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:AZ49">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:C50">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:BA50">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:AZ50">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C51">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:BA51">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:AZ51">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:C52">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:BA52">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:AZ52">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:C53">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:BA53">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:C54">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:BA54">
+  <conditionalFormatting sqref="D53:AZ53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-1" xr:uid="{B2AAF72A-1709-472B-ABC8-7C4F423BC99E}"/>
-    <hyperlink ref="B6" r:id="rId2" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-1.1" xr:uid="{15038397-96A9-453A-8FF6-D57498CBD60F}"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-2" xr:uid="{1D356A81-97AB-4454-A1F5-5F0631E91650}"/>
-    <hyperlink ref="B8" r:id="rId4" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-2.1" xr:uid="{47953CAA-EAA6-44F6-8F7A-EA89E601493D}"/>
-    <hyperlink ref="B9" r:id="rId5" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-3" xr:uid="{AC23628C-31C7-47C3-9C11-759C50033BF6}"/>
-    <hyperlink ref="B10" r:id="rId6" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-3.1" xr:uid="{C18EE66E-1FDF-4525-8344-F30A5DF3F82F}"/>
-    <hyperlink ref="B11" r:id="rId7" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4" xr:uid="{5BE7DD28-0BA3-47E5-9A3D-52EDB8064F11}"/>
-    <hyperlink ref="B12" r:id="rId8" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4.1" xr:uid="{02BD329F-3240-4405-92CC-6BD94AF709B2}"/>
-    <hyperlink ref="B13" r:id="rId9" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4.2" xr:uid="{D4A92C44-FDCF-4BF3-AD0C-CEAC5658ED10}"/>
-    <hyperlink ref="B14" r:id="rId10" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4.3" xr:uid="{53B209A8-50AC-4BF9-BB0D-7E9B2ABD24B0}"/>
-    <hyperlink ref="B15" r:id="rId11" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-5" xr:uid="{9542F68E-1C69-4ED2-A5F2-F0574A963401}"/>
-    <hyperlink ref="B16" r:id="rId12" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-6" xr:uid="{36ED491C-6B3B-4DA1-8CA7-CACB5F3708E9}"/>
-    <hyperlink ref="B17" r:id="rId13" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-7" xr:uid="{8F479529-F939-42AC-AC8A-51BFDEC714AA}"/>
-    <hyperlink ref="B18" r:id="rId14" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8" xr:uid="{1F722447-0E26-4DFB-B4E2-888D607AAF9E}"/>
-    <hyperlink ref="B19" r:id="rId15" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.1" xr:uid="{B896E6AD-8B97-4BE8-98B1-A2C7E8D43F6E}"/>
-    <hyperlink ref="B20" r:id="rId16" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.2" xr:uid="{BEED2A30-7D2B-40C5-A0A9-808496E914FA}"/>
-    <hyperlink ref="B21" r:id="rId17" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.3" xr:uid="{F1733E84-D644-4201-A888-2342F9B0360E}"/>
-    <hyperlink ref="B22" r:id="rId18" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.4" xr:uid="{FE3F5069-C244-48FF-9453-ED0D430C4EDD}"/>
-    <hyperlink ref="B23" r:id="rId19" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-9" xr:uid="{A4482C6C-9CB1-4334-82D4-C83005AFC5A9}"/>
-    <hyperlink ref="B24" r:id="rId20" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-9.1" xr:uid="{637B9429-CA7F-4888-8F8E-FC67ECFE143A}"/>
-    <hyperlink ref="B25" r:id="rId21" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-10" xr:uid="{E15B16C9-565D-4BBE-B7AE-78EAA9C67EC6}"/>
-    <hyperlink ref="B26" r:id="rId22" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-11" xr:uid="{C680631E-B98C-4CB5-9DF1-A6E06E60139A}"/>
-    <hyperlink ref="B27" r:id="rId23" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-1" xr:uid="{9B3E5DA0-3574-413E-A741-9D03F3367C06}"/>
-    <hyperlink ref="B28" r:id="rId24" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2" xr:uid="{A8E7BC5B-84C6-4D52-804A-422A233E06B7}"/>
-    <hyperlink ref="B29" r:id="rId25" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2.1" xr:uid="{A1D45B39-94D6-4D86-99A4-7B8EAAA4CF56}"/>
-    <hyperlink ref="B30" r:id="rId26" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2.2" xr:uid="{D5016435-E62D-45B4-AD0A-3EA9535A3F77}"/>
-    <hyperlink ref="B31" r:id="rId27" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2.3" xr:uid="{77C9E89A-AD44-4B97-9419-9A186DABCBD0}"/>
-    <hyperlink ref="B32" r:id="rId28" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-3" xr:uid="{31866165-BE01-47FC-95D0-2E7E23E6EE90}"/>
-    <hyperlink ref="B33" r:id="rId29" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-3.1" xr:uid="{8E9EA636-1D29-4484-B2C0-D4153B637D72}"/>
-    <hyperlink ref="B34" r:id="rId30" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-4" xr:uid="{FBC1BDC0-486F-4C03-81F8-46A9FB12255D}"/>
-    <hyperlink ref="B35" r:id="rId31" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-4.1" xr:uid="{607BF309-48DF-450A-A463-F3C1E8D4D345}"/>
-    <hyperlink ref="B36" r:id="rId32" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-5" xr:uid="{AEF18EB8-F561-4A45-A02A-471F6738687F}"/>
-    <hyperlink ref="B37" r:id="rId33" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-6" xr:uid="{74DE2762-58CE-44A7-9E13-CA5D13E4A336}"/>
-    <hyperlink ref="B38" r:id="rId34" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-7" xr:uid="{94C9C746-E92E-459C-8649-C3D9CE316477}"/>
-    <hyperlink ref="B39" r:id="rId35" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-7.1" xr:uid="{638EFEE3-72B1-4642-A3ED-D62BA947CB60}"/>
-    <hyperlink ref="B40" r:id="rId36" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-7.2" xr:uid="{4625D76B-7EF5-4C89-8DF1-5C0605FEC268}"/>
-    <hyperlink ref="B41" r:id="rId37" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-1" xr:uid="{D4CA3803-F982-481E-B680-024ABCABF4D3}"/>
-    <hyperlink ref="B42" r:id="rId38" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-2" xr:uid="{D6C4A186-F053-4D05-B2CC-CCDED6375D46}"/>
-    <hyperlink ref="B43" r:id="rId39" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-3" xr:uid="{81C8D3FF-B599-4152-8431-95363640896D}"/>
-    <hyperlink ref="B44" r:id="rId40" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-3.1" xr:uid="{876A2690-656A-4605-9482-9C9B93438D20}"/>
-    <hyperlink ref="B45" r:id="rId41" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-4" xr:uid="{1E738962-2B97-416F-9FBB-BE8A1BAF546E}"/>
-    <hyperlink ref="B46" r:id="rId42" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-5" xr:uid="{4CDF9FF7-DDB9-42A8-A847-5248E910BAB0}"/>
-    <hyperlink ref="B47" r:id="rId43" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-1" xr:uid="{91CB29F2-F364-4B23-8B72-11872ED51C06}"/>
-    <hyperlink ref="B48" r:id="rId44" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-2" xr:uid="{64FB8497-E198-4A47-89CF-6625B1400E6A}"/>
-    <hyperlink ref="B49" r:id="rId45" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-3" xr:uid="{A33B4E5D-0BBA-4910-8860-E05576FAE8B6}"/>
-    <hyperlink ref="B50" r:id="rId46" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-4" xr:uid="{7874AE5B-0A99-4BC0-867D-C41C78A4857B}"/>
-    <hyperlink ref="B51" r:id="rId47" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-4.1" xr:uid="{2C6CC6E6-D745-41CC-99A4-DA9B2AF16C12}"/>
-    <hyperlink ref="B52" r:id="rId48" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-4.2" xr:uid="{9CE1AA29-A523-42A0-8536-3C5E2C351996}"/>
-    <hyperlink ref="B53" r:id="rId49" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-5" xr:uid="{3B98838E-057D-40C7-8F1E-3D5DECCE35F0}"/>
-    <hyperlink ref="B54" r:id="rId50" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-6" xr:uid="{AF966F51-5328-47EB-945B-C53853CB29F0}"/>
+    <hyperlink ref="B5" r:id="rId1" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-1" xr:uid="{6E559656-5019-450A-899F-715518B89156}"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-1.1" xr:uid="{6DCE740F-0F64-4306-B312-8D4CBA672EBB}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-2" xr:uid="{4BFE1A97-FC8A-4F63-95B4-13A92498DD9C}"/>
+    <hyperlink ref="B8" r:id="rId4" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-2.1" xr:uid="{A94700C4-FD78-4381-8D7E-8333FFC9F6F1}"/>
+    <hyperlink ref="B9" r:id="rId5" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-3" xr:uid="{9CF94E7C-CD35-409E-AFCE-3F0832622159}"/>
+    <hyperlink ref="B10" r:id="rId6" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-3.1" xr:uid="{400A5FBE-032E-478F-9FF6-0BE7A1A422BC}"/>
+    <hyperlink ref="B11" r:id="rId7" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4" xr:uid="{D9780491-F344-4D60-A5E1-24F666D83BFF}"/>
+    <hyperlink ref="B12" r:id="rId8" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4.1" xr:uid="{9FC3AC1F-EE51-4FA1-B4C6-40079E0C561F}"/>
+    <hyperlink ref="B13" r:id="rId9" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4.2" xr:uid="{667319B4-F2C6-428B-892D-66E2846594ED}"/>
+    <hyperlink ref="B14" r:id="rId10" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-4.3" xr:uid="{5492EC2C-A693-42BD-85FD-54AE58F5F297}"/>
+    <hyperlink ref="B15" r:id="rId11" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-5" xr:uid="{965B04F4-1774-4215-91AF-5AC0AE43C319}"/>
+    <hyperlink ref="B16" r:id="rId12" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-6" xr:uid="{ADFB38CC-AD6D-4DB7-B8AD-53031D3EF569}"/>
+    <hyperlink ref="B17" r:id="rId13" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-7" xr:uid="{25BE8CD4-FC4F-4B90-B865-628E00EB3605}"/>
+    <hyperlink ref="B18" r:id="rId14" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8" xr:uid="{39C6D1AA-6B28-4608-9CAB-135578A530E1}"/>
+    <hyperlink ref="B19" r:id="rId15" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.1" xr:uid="{EF1506FE-D38F-4BDD-8484-D9A31B86D760}"/>
+    <hyperlink ref="B20" r:id="rId16" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.2" xr:uid="{6BF49707-FE44-431F-B7A1-9189053DCA5E}"/>
+    <hyperlink ref="B21" r:id="rId17" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.3" xr:uid="{C93E6245-7E51-468B-AE01-9BA52929600A}"/>
+    <hyperlink ref="B22" r:id="rId18" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-8.4" xr:uid="{62C5288D-DC7C-4EE2-AF3B-641DFE203F94}"/>
+    <hyperlink ref="B23" r:id="rId19" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-9" xr:uid="{AF0712F1-9AA6-4CC8-A0F0-DC2418B53D12}"/>
+    <hyperlink ref="B24" r:id="rId20" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-9.1" xr:uid="{C7D5F4A6-2A88-425A-9F1F-81BBC0160773}"/>
+    <hyperlink ref="B25" r:id="rId21" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-10" xr:uid="{0BC59C93-C475-4369-AD65-D7B3DE73BE68}"/>
+    <hyperlink ref="B26" r:id="rId22" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-5-11" xr:uid="{7C291606-5E3E-4D1C-84D1-C2CE23949DA9}"/>
+    <hyperlink ref="B27" r:id="rId23" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-1" xr:uid="{B553A035-34B7-4281-A4AD-9B617BC37ABA}"/>
+    <hyperlink ref="B28" r:id="rId24" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2" xr:uid="{7E30095A-B37E-4708-B750-8AB128898293}"/>
+    <hyperlink ref="B29" r:id="rId25" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2.1" xr:uid="{190668A4-3CE1-4BCE-8CF5-3F379E5643A2}"/>
+    <hyperlink ref="B30" r:id="rId26" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2.2" xr:uid="{CD113296-E5D8-4AE2-AC0D-2E60DA0521B9}"/>
+    <hyperlink ref="B31" r:id="rId27" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-2.3" xr:uid="{CF8CDD86-3C0D-49A0-ADEE-A1FE3D44CA5D}"/>
+    <hyperlink ref="B32" r:id="rId28" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-3" xr:uid="{8D813107-67C0-4813-9465-9D61C15CD1BD}"/>
+    <hyperlink ref="B33" r:id="rId29" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-3.1" xr:uid="{D506A334-09CB-44C1-BA7D-A7417B184133}"/>
+    <hyperlink ref="B34" r:id="rId30" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-4" xr:uid="{3F26697B-87C9-4ACE-92DF-EE1273C3EEFA}"/>
+    <hyperlink ref="B35" r:id="rId31" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-4.1" xr:uid="{CAF9D4E6-885F-48C3-9AF3-3BE97BC5C696}"/>
+    <hyperlink ref="B36" r:id="rId32" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-5" xr:uid="{BE90B79B-2DC8-4323-BF1F-240DB2C305A6}"/>
+    <hyperlink ref="B37" r:id="rId33" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-6" xr:uid="{16576382-36F6-486C-85D5-E48B473418CF}"/>
+    <hyperlink ref="B38" r:id="rId34" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-7" xr:uid="{75D45270-30AE-4B6B-B90B-B1DFC3EDB1DC}"/>
+    <hyperlink ref="B39" r:id="rId35" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-7.1" xr:uid="{2B4A21B1-EB60-42D3-8599-F213BEF537AC}"/>
+    <hyperlink ref="B40" r:id="rId36" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-6-7.2" xr:uid="{934056E1-7CB1-44FD-861E-0243E828EA0E}"/>
+    <hyperlink ref="B41" r:id="rId37" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-1" xr:uid="{84513E93-07FA-47FC-A2C8-731AE3531BF1}"/>
+    <hyperlink ref="B42" r:id="rId38" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-2" xr:uid="{4159853A-E4E2-476E-80EC-59781CA83ED8}"/>
+    <hyperlink ref="B43" r:id="rId39" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-3" xr:uid="{9FF226CE-BEFD-4A4A-B5A8-AEEF7D59260D}"/>
+    <hyperlink ref="B44" r:id="rId40" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-3.1" xr:uid="{E052CD38-A7B7-4197-93F0-95E10E042E58}"/>
+    <hyperlink ref="B45" r:id="rId41" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-7-5" xr:uid="{56FB634B-925E-4CB3-B64B-1A8BA30D9B10}"/>
+    <hyperlink ref="B46" r:id="rId42" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-1" xr:uid="{6D2CCD48-7E49-48D7-B185-BBD4D7023D72}"/>
+    <hyperlink ref="B47" r:id="rId43" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-2" xr:uid="{C22B91B3-897B-47F8-875E-5FA808C47BEB}"/>
+    <hyperlink ref="B48" r:id="rId44" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-3" xr:uid="{A5C7DD5F-CB1F-42E5-AD32-E94789AFBA1A}"/>
+    <hyperlink ref="B49" r:id="rId45" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-4" xr:uid="{015004F8-7FA0-48AC-98B4-2BBB84FF39DC}"/>
+    <hyperlink ref="B50" r:id="rId46" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-4.1" xr:uid="{3937553E-7C0D-4BE9-9F58-DB1C9825BCCE}"/>
+    <hyperlink ref="B51" r:id="rId47" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-4.2" xr:uid="{266E318F-15FA-4225-970E-CA3F55A8193B}"/>
+    <hyperlink ref="B52" r:id="rId48" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-5" xr:uid="{87272AFF-CEC8-4BA4-AA1E-73537F427419}"/>
+    <hyperlink ref="B53" r:id="rId49" tooltip="cc://C:\Users\Asus\Desktop\Programming\Git\FMI-ASI\Rezervito\Rezervito.ucd?REQ-8-6" xr:uid="{8C9DC6FF-0958-4BAA-98B9-440588F17B32}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId51"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId50"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId51"/>
 </worksheet>
 </file>